--- a/shots/players/excel/senor_wetball.xlsx
+++ b/shots/players/excel/senor_wetball.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
   <si>
     <t>Senor</t>
   </si>
@@ -86,8 +86,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -107,7 +111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -115,6 +119,8 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -122,6 +128,8 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -472,10 +480,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -485,11 +493,11 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,600)</f>
-        <v>42</v>
+        <v>361</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(50, 300)</f>
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="G2" s="1" t="str">
         <f ca="1">INDIRECT(CONCATENATE("D",RANDBETWEEN(2,3)))</f>
@@ -498,10 +506,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>507</v>
+        <v>565</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -512,10 +520,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="B4">
-        <v>114</v>
+        <v>347</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -523,520 +531,457 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>174</v>
+        <v>565</v>
       </c>
       <c r="B6">
-        <v>230</v>
+        <v>165</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7">
-        <v>514</v>
-      </c>
-      <c r="B7">
-        <v>63</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8">
-        <v>281</v>
-      </c>
-      <c r="B8">
-        <v>297</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9">
-        <v>481</v>
-      </c>
-      <c r="B9">
-        <v>84</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10">
-        <v>113</v>
-      </c>
-      <c r="B10">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11">
-        <v>420</v>
-      </c>
-      <c r="B11">
-        <v>268</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12">
-        <v>278</v>
-      </c>
-      <c r="B12">
-        <v>192</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13">
-        <v>68</v>
-      </c>
-      <c r="B13">
-        <v>219</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14">
-        <v>587</v>
-      </c>
-      <c r="B14">
-        <v>50</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15">
-        <v>189</v>
-      </c>
-      <c r="B15">
-        <v>284</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16">
-        <v>106</v>
-      </c>
-      <c r="B16">
-        <v>60</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>452</v>
-      </c>
-      <c r="B17">
-        <v>197</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>73</v>
-      </c>
-      <c r="B18">
-        <v>199</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>241</v>
-      </c>
-      <c r="B19">
-        <v>103</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>203</v>
-      </c>
-      <c r="B20">
-        <v>59</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>233</v>
-      </c>
-      <c r="B21">
-        <v>156</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>423</v>
-      </c>
-      <c r="B22">
-        <v>269</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>381</v>
-      </c>
-      <c r="B23">
-        <v>83</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>61</v>
-      </c>
-      <c r="B24">
-        <v>130</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>124</v>
-      </c>
-      <c r="B25">
-        <v>115</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>485</v>
-      </c>
-      <c r="B26">
-        <v>135</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>441</v>
-      </c>
-      <c r="B27">
-        <v>292</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>433</v>
-      </c>
-      <c r="B28">
-        <v>218</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>292</v>
-      </c>
-      <c r="B29">
-        <v>136</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>306</v>
-      </c>
-      <c r="B30">
-        <v>291</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>492</v>
-      </c>
-      <c r="B31">
-        <v>231</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>66</v>
-      </c>
-      <c r="B32">
-        <v>259</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>159</v>
-      </c>
-      <c r="B33">
-        <v>112</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>164</v>
-      </c>
-      <c r="B34">
-        <v>177</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>9</v>
-      </c>
-      <c r="B35">
-        <v>60</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>260</v>
-      </c>
-      <c r="B36">
-        <v>192</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>426</v>
-      </c>
-      <c r="B37">
-        <v>169</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>433</v>
-      </c>
-      <c r="B38">
-        <v>288</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>430</v>
-      </c>
-      <c r="B39">
-        <v>190</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>439</v>
-      </c>
-      <c r="B40">
-        <v>140</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>311</v>
-      </c>
-      <c r="B41">
-        <v>205</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>173</v>
-      </c>
-      <c r="B42">
-        <v>286</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>180</v>
-      </c>
-      <c r="B43">
-        <v>67</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>94</v>
-      </c>
-      <c r="B44">
-        <v>247</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>411</v>
-      </c>
-      <c r="B45">
-        <v>143</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>470</v>
-      </c>
-      <c r="B46">
-        <v>103</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>240</v>
-      </c>
-      <c r="B47">
-        <v>207</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>324</v>
-      </c>
-      <c r="B48">
-        <v>178</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>436</v>
-      </c>
-      <c r="B49">
-        <v>158</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>254</v>
-      </c>
-      <c r="B50">
-        <v>96</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <v>382</v>
-      </c>
-      <c r="B51">
-        <v>287</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
